--- a/Example.xlsx
+++ b/Example.xlsx
@@ -9,15 +9,26 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2 (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2 (4)" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2 (5)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2 (6)" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2 (7)" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2 (8)" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2 (9)" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2 (10)" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2 (11)" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2 (12)" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet2 (13)" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet2 (14)" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="49">
   <si>
     <t>教师姓名</t>
   </si>
@@ -26,6 +37,12 @@
   </si>
   <si>
     <t>教师手机号</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>地点</t>
   </si>
   <si>
     <t>请输入本次需要添加的
@@ -38,13 +55,100 @@
 每张表的A1格输入教师名</t>
   </si>
   <si>
-    <t>teacher1</t>
-  </si>
-  <si>
-    <t>teacher2</t>
-  </si>
-  <si>
-    <t>teacher3</t>
+    <t>Aladdin Ayesh</t>
+  </si>
+  <si>
+    <t>人工智能基础</t>
+  </si>
+  <si>
+    <t>205-A</t>
+  </si>
+  <si>
+    <t>Binod Bhattarai</t>
+  </si>
+  <si>
+    <t>205-B</t>
+  </si>
+  <si>
+    <t>Tianhong Dai</t>
+  </si>
+  <si>
+    <t>Xiao Li</t>
+  </si>
+  <si>
+    <t>软件工程导论</t>
+  </si>
+  <si>
+    <t>Thuan Chuah</t>
+  </si>
+  <si>
+    <t>Yongchao Huang</t>
+  </si>
+  <si>
+    <t>马文俊</t>
+  </si>
+  <si>
+    <t>高等数学</t>
+  </si>
+  <si>
+    <t>207-B</t>
+  </si>
+  <si>
+    <t>杜志斌</t>
+  </si>
+  <si>
+    <t>概率论与数理统计</t>
+  </si>
+  <si>
+    <t>吴小丽</t>
+  </si>
+  <si>
+    <t>雅思备考及英语学习</t>
+  </si>
+  <si>
+    <t>吴婧雅</t>
+  </si>
+  <si>
+    <t>留学规划、文书指导</t>
+  </si>
+  <si>
+    <t>100-A</t>
+  </si>
+  <si>
+    <t>教学事务办公室</t>
+  </si>
+  <si>
+    <t>课程学习</t>
+  </si>
+  <si>
+    <t>学生工作办公室</t>
+  </si>
+  <si>
+    <t>学生事务、党团学</t>
+  </si>
+  <si>
+    <t>207-A</t>
+  </si>
+  <si>
+    <t>学生创新空间</t>
+  </si>
+  <si>
+    <t>创新创业</t>
+  </si>
+  <si>
+    <t>闫弘宇</t>
+  </si>
+  <si>
+    <t>测试账号</t>
+  </si>
+  <si>
+    <t>H258</t>
+  </si>
+  <si>
+    <t>2023.09.28</t>
+  </si>
+  <si>
+    <t>2023.10.03</t>
   </si>
   <si>
     <t>2023.10.08</t>
@@ -56,13 +160,25 @@
     <t>2023.10.22</t>
   </si>
   <si>
-    <t>08:00-10:00</t>
-  </si>
-  <si>
-    <t>10:00-12:00</t>
-  </si>
-  <si>
-    <t>14:00-16:00</t>
+    <t>14:00-14:30</t>
+  </si>
+  <si>
+    <t>14:30-15:00</t>
+  </si>
+  <si>
+    <t>15:00-15:30</t>
+  </si>
+  <si>
+    <t>15:30-16:00</t>
+  </si>
+  <si>
+    <t>16:00-16:30</t>
+  </si>
+  <si>
+    <t>16:30-17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yongchao Huang </t>
   </si>
 </sst>
 </file>
@@ -701,19 +817,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,7 +843,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,176 +1156,964 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="15.6363636363636" customWidth="1"/>
+    <col min="1" max="5" width="25.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
         <v>2023001</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>18688880001</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
         <v>2023002</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>18688880002</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7">
         <v>2023003</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>18688880003</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2023004</v>
+      </c>
+      <c r="C5" s="7">
+        <v>18688880004</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2023005</v>
+      </c>
+      <c r="C6" s="7">
+        <v>18688880005</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7">
+        <v>201</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2023006</v>
+      </c>
+      <c r="C7" s="7">
+        <v>18688880006</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>201</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2023007</v>
+      </c>
+      <c r="C8" s="7">
+        <v>18688880007</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2023008</v>
+      </c>
+      <c r="C9" s="7">
+        <v>18688880008</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>102</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2023009</v>
+      </c>
+      <c r="C10" s="7">
+        <v>18688880009</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7">
+        <v>102</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2023010</v>
+      </c>
+      <c r="C11" s="7">
+        <v>18688880010</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2023011</v>
+      </c>
+      <c r="C12" s="7">
+        <v>18688880011</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2023012</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18688880012</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2023013</v>
+      </c>
+      <c r="C14" s="7">
+        <v>18688880013</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2023014</v>
+      </c>
+      <c r="C15" s="7">
+        <v>18688880014</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:G11"/>
-    <mergeCell ref="I1:K11"/>
+    <mergeCell ref="K1:M11"/>
+    <mergeCell ref="G1:I11"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1216,54 +2123,96 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,54 +2224,96 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1334,57 +2325,605 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="20.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>